--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2401053.14127239</v>
+        <v>2399165.559755987</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9852075.648704169</v>
+        <v>9852075.648704167</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>30.99636303581941</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>30.28266751616624</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>287.1295912089695</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>96.3616331761031</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>50.09791697323084</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>181.2178631822723</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>124.2223705373595</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.83808333974894</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>59.7121540676148</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941243</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,13 +1585,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>168.3008816276995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174111</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>101.2898147863545</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>49.45598643312671</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385009</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>221.2990675789115</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>51.44029960352515</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>101.2898147863551</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151916</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>87.65220976161908</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>149.4433890341024</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>78.67531269947847</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965509</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>93.71057173897886</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>39.72583251029211</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523553</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373509</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415221</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U37" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2665.839633406284</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2334.776746062713</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.008090792599</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.008090792599</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1591.868758816787</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>411.2797076961344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1249.542876750359</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>677.5250276678174</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>463.2366044859801</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>235.9284171545818</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>235.9284171545818</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.049931616194</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2516.643259591787</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2262.881474229879</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>1931.818586886308</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>1579.049931616194</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>1579.049931616194</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.049931616194</v>
+        <v>1528.349585887293</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046678</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767609</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,16 +5030,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514079</v>
@@ -5057,10 +5057,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262063</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.509052552801</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C13" t="n">
-        <v>415.509052552801</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5197,16 +5197,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119727</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909233</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227914</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>704.9262225897616</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>415.509052552801</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>415.509052552801</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.509052552801</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,19 +5273,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262063</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.810421592522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>415.810421592522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>415.810421592522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.810421592522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
         <v>1283.483062980063</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1249.040718621811</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U16" t="n">
-        <v>959.9120798353695</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V16" t="n">
-        <v>705.2275916294826</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W16" t="n">
-        <v>415.810421592522</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="X16" t="n">
-        <v>415.810421592522</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.810421592522</v>
+        <v>199.5300356889268</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,7 +5540,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.2581065529678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2581065529678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705747</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705747</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>898.792518248838</v>
+        <v>874.9271131227923</v>
       </c>
       <c r="V19" t="n">
-        <v>898.792518248838</v>
+        <v>620.2426249169055</v>
       </c>
       <c r="W19" t="n">
-        <v>675.2581065529678</v>
+        <v>330.8254548799449</v>
       </c>
       <c r="X19" t="n">
-        <v>675.2581065529678</v>
+        <v>330.8254548799449</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.2581065529678</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889274</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889274</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5896,64 +5896,64 @@
         <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889274</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,19 +5999,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
@@ -6075,13 +6075,13 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488375</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>644.1080300429505</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>354.6908600059899</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>354.6908600059899</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,28 +6245,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>545.1765965867971</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>545.1765965867971</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>395.0599571744614</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>395.0599571744614</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>248.1700096765509</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028586</v>
@@ -6382,19 +6382,19 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
         <v>1283.483062980063</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>954.8146123150543</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>726.8250614170369</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>726.8250614170369</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542181</v>
+        <v>439.5324299542213</v>
       </c>
       <c r="C31" t="n">
-        <v>360.062417126462</v>
+        <v>326.3571123076854</v>
       </c>
       <c r="D31" t="n">
-        <v>360.062417126462</v>
+        <v>232.0013381767208</v>
       </c>
       <c r="E31" t="n">
-        <v>360.062417126462</v>
+        <v>232.0013381767208</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>232.0013381767208</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>232.0013381767208</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>137.3441950060354</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>902.6804289818956</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652463</v>
+        <v>730.4517433652492</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503087</v>
+        <v>565.4200295030901</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6707,40 +6707,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108316</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229657</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850671</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083189</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504495</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,13 +6880,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045193</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010303</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,13 +6953,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,43 +7157,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103134</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2358.217138262064</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254956</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7649,22 +7649,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207831</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7795,10 +7795,10 @@
         <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649689</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010312</v>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302122</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735881</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735881</v>
+        <v>80.50021372615265</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>272.8719470256804</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229581</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>444.4889386861661</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>113.6026921294544</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q33" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>180.0237016735871</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,19 +11382,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>277.6717966208068</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>134.4977453535109</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23419,16 +23419,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715674</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>83.83676169612846</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>78.54216539558276</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>172.0915746252625</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>65.22393075767947</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>167.1443537485696</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>47.32565823185725</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>130.9324435904758</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>17.05017942927522</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.36825177059228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.2307060180119</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.21779139437398</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15.49015632542261</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.918465386552271e-12</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861455.4263904991</v>
+        <v>861455.4263904992</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327927</v>
+        <v>547440.6836327928</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327927</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327928</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327927</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327927</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="K2" t="n">
         <v>569550.9922833787</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049976</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049976</v>
+        <v>574729.2389049979</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284585</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086697</v>
+        <v>10342.90680086666</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284599</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,37 +26424,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007572</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007531</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007539</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020408</v>
+        <v>26081.35417020409</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732802</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732798</v>
-      </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732801</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,28 +26476,28 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002538</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246014.7670888765</v>
+        <v>-246014.7670888759</v>
       </c>
       <c r="C6" t="n">
         <v>343953.1121256684</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256686</v>
+        <v>343953.1121256682</v>
       </c>
       <c r="E6" t="n">
-        <v>-77623.41044882734</v>
+        <v>-77720.86957479964</v>
       </c>
       <c r="F6" t="n">
-        <v>447536.6260280685</v>
+        <v>447439.1669020962</v>
       </c>
       <c r="G6" t="n">
-        <v>447536.6260280686</v>
+        <v>447439.1669020962</v>
       </c>
       <c r="H6" t="n">
-        <v>447536.6260280686</v>
+        <v>447439.1669020961</v>
       </c>
       <c r="I6" t="n">
-        <v>447536.6260280682</v>
+        <v>447439.1669020958</v>
       </c>
       <c r="J6" t="n">
-        <v>271113.4068354757</v>
+        <v>271015.9477095032</v>
       </c>
       <c r="K6" t="n">
-        <v>402678.8242801062</v>
+        <v>402660.3305421717</v>
       </c>
       <c r="L6" t="n">
-        <v>436335.7073867773</v>
+        <v>436335.7073867781</v>
       </c>
       <c r="M6" t="n">
-        <v>311877.5989538084</v>
+        <v>311877.5989538083</v>
       </c>
       <c r="N6" t="n">
-        <v>446678.6141876451</v>
+        <v>446678.6141876449</v>
       </c>
       <c r="O6" t="n">
-        <v>446678.6141876451</v>
+        <v>446678.6141876454</v>
       </c>
       <c r="P6" t="n">
-        <v>402516.0088847985</v>
+        <v>402516.0088847986</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26768,7 +26768,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108333</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855736</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,25 +27033,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>540.9263704990171</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990169</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>220.2278044724699</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>115.138380506765</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>277.7355775855547</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>67.55345041171341</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>273.3694675023659</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>96.56727500692699</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>197.6620873047944</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>184.0550285887353</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>92.2259498202983</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.9938968421883</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>192.4254892562132</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.927418225022848e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855727</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>241.8130382709604</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586621</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35744,10 +35744,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586621</v>
+        <v>168.5132465112268</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>583.2963240761467</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>754.9133157366323</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36692,7 +36692,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>320.696107060979</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412279</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043202</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37160,13 +37160,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520611</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
@@ -37242,10 +37242,10 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,19 +37391,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>724.9245949685502</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,16 +37631,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313028</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,13 +37871,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.0367344586612</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,19 +38102,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>588.096173671273</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>341.5911602850355</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
